--- a/biology/Médecine/Artère_cérébelleuse_supérieure/Artère_cérébelleuse_supérieure.xlsx
+++ b/biology/Médecine/Artère_cérébelleuse_supérieure/Artère_cérébelleuse_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_c%C3%A9r%C3%A9belleuse_sup%C3%A9rieure</t>
+          <t>Artère_cérébelleuse_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère cérébelleuse supérieure (ou SCA, sigle de son nom anglais) est une artère du cervelet. C'est une branche collatérale, paire, de l'artère basilaire, qui est impaire. Cette artère est mise en cause dans la survenue de névralgie du trijumeau.
  Portail de l’anatomie   Portail de la médecine                    </t>
